--- a/biology/Histoire de la zoologie et de la botanique/William_Carmichael_McIntosh/William_Carmichael_McIntosh.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Carmichael_McIntosh/William_Carmichael_McIntosh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Carmichael McIntosh (né le 10 octobre 1838 à St Andrews et mort le 1er avril 1931 dans la même ville) est un zoologiste écossais.
 William Carmichael McIntosh a travaillé à la connaissance des poissons marins et à la description et la taxinomie des annélides britanniques.
@@ -512,12 +524,14 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plusieurs espèces animales ont été nommées en hommage à McIntosh :
 un invertébré de l'embranchement des Orthonectida : Intoshia Giard, 1877 ;
-un vers annélide Intoshella (sv) Darboux 1899[1] ;
-un protiste cilié, Intoshellina maupasi Cépède, 1910[note 1],[2], dont le nom de genre a donné son nom à la famille des Intoshellinidae Darboux 1899.</t>
+un vers annélide Intoshella (sv) Darboux 1899 ;
+un protiste cilié, Intoshellina maupasi Cépède, 1910[note 1] dont le nom de genre a donné son nom à la famille des Intoshellinidae Darboux 1899.</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quelques exemples de titres publiés :
 (en) W. C. McIntosh, A monograph of the British marine annelids : Part I. The Nemerteans, vol. 1, Londres, Ray Society, 1873, 214 p. (lire en ligne).
